--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF_BOM_V1.00_01-10-24.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F026C4-4F96-434F-9F17-6242463940AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EB3393-D794-4A49-B909-9969DF277813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K9HZ_LPF_BOM_V1.00_01-10-24" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="226">
   <si>
     <t>Quantity</t>
   </si>
@@ -46,15 +59,9 @@
     <t>14pF 100V SMD 1206 Capacitor</t>
   </si>
   <si>
-    <t>C63, C69</t>
-  </si>
-  <si>
     <t>27pF 100V SMD 1206 Capacitor</t>
   </si>
   <si>
-    <t>C65, C148</t>
-  </si>
-  <si>
     <t>33pF 100V SMD 1206 Capacitor</t>
   </si>
   <si>
@@ -64,18 +71,9 @@
     <t>39pF 100V SMD 1206 Capacitor</t>
   </si>
   <si>
-    <t>C60 , C64</t>
-  </si>
-  <si>
     <t>47pF 100V SMD 1206 Capacitor</t>
   </si>
   <si>
-    <t>C62</t>
-  </si>
-  <si>
-    <t>47pf 500V SMD 1206 Capacitor</t>
-  </si>
-  <si>
     <t>C57, C75</t>
   </si>
   <si>
@@ -85,9 +83,6 @@
     <t>C39, C67, C100</t>
   </si>
   <si>
-    <t>60pF 100V SMD 1206 Capacitor</t>
-  </si>
-  <si>
     <t>C66, C68</t>
   </si>
   <si>
@@ -253,9 +248,6 @@
     <t>SMA PCB Mount Female Connector</t>
   </si>
   <si>
-    <t>901-144</t>
-  </si>
-  <si>
     <t>K1, K2, K3, K4, K5, K6, K7, K8, K9, K10, K11, K12, K13, K14, K15, K16, K17, K18, K19, K20, K21, K22, K23, K24, K25, K26, K27, K28, K29, K30, K31, K32, K33</t>
   </si>
   <si>
@@ -409,9 +401,6 @@
     <t>L38, L40, L42, L43</t>
   </si>
   <si>
-    <t>22uH SMD 1205 Inductor</t>
-  </si>
-  <si>
     <t>L44</t>
   </si>
   <si>
@@ -566,6 +555,162 @@
   </si>
   <si>
     <t>1116 Ohm SMD 1206 Resistor</t>
+  </si>
+  <si>
+    <t>22nH SMD 1205 Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 815-AISC-1206-22NJ-T</t>
+  </si>
+  <si>
+    <t>80-C1206C390J2GACTU</t>
+  </si>
+  <si>
+    <t>603-CC126JRNPOABN470</t>
+  </si>
+  <si>
+    <t>581-12062A560KAT2A</t>
+  </si>
+  <si>
+    <t>C60 , C62, C64</t>
+  </si>
+  <si>
+    <t>81-GCM31A5C2E270FX1D</t>
+  </si>
+  <si>
+    <t>603-CC126JRNPOABN330</t>
+  </si>
+  <si>
+    <t>C63, C69, C39A, C67A, C100A</t>
+  </si>
+  <si>
+    <t>C65, C39B, C67B, C100B</t>
+  </si>
+  <si>
+    <t>12102U140JAT2A</t>
+  </si>
+  <si>
+    <t>80-C1206C680J2G</t>
+  </si>
+  <si>
+    <t>80-C1206C820J2G</t>
+  </si>
+  <si>
+    <t>581-12062A101J</t>
+  </si>
+  <si>
+    <t>581-12062A121JAT2A</t>
+  </si>
+  <si>
+    <t>603-CC126JRNPOABN151</t>
+  </si>
+  <si>
+    <t>581-12062A181JAT2A</t>
+  </si>
+  <si>
+    <t>581-12062A221JAT2A</t>
+  </si>
+  <si>
+    <t>581-12062A331JAT2A</t>
+  </si>
+  <si>
+    <t>581-12062A391JAT2A</t>
+  </si>
+  <si>
+    <t>603-CC126JRNPOABN471</t>
+  </si>
+  <si>
+    <t>80-C1206C561J2G</t>
+  </si>
+  <si>
+    <t>581-12062A122JAT2A</t>
+  </si>
+  <si>
+    <t>603-CC126JRNPOABN152</t>
+  </si>
+  <si>
+    <t>581-12062C222JAT2A</t>
+  </si>
+  <si>
+    <t>VJ0805D910JXPAJ</t>
+  </si>
+  <si>
+    <t>C39, C67, C100 (made from above A and B parts stacked)</t>
+  </si>
+  <si>
+    <t>C1206C104K5RACTU</t>
+  </si>
+  <si>
+    <t>712-CONREVSMA001-G</t>
+  </si>
+  <si>
+    <t>Surplus from eBay</t>
+  </si>
+  <si>
+    <t>9 Turns of #20 Wire on a T68-17 Core.</t>
+  </si>
+  <si>
+    <t>10 Turns of #20 Wire on a T68-17 Core.</t>
+  </si>
+  <si>
+    <t>8 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>9 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>10 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>11 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>12 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>13 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>14 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>16 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>17 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>17 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>18 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>21 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>22 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>29 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>30 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>TadyaElectronics</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 512-BS170</t>
+  </si>
+  <si>
+    <t>KitsandParts.com</t>
   </si>
 </sst>
 </file>
@@ -708,7 +853,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,6 +1031,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1049,7 +1206,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1058,6 +1215,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1413,1039 +1584,1238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.26953125" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.26953125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="48.08984375" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>39</v>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
+      <c r="B30" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D35" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>20</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
+      <c r="B37" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>33</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C42" t="s">
         <v>80</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C43" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C44" t="s">
         <v>84</v>
       </c>
-      <c r="C41" t="s">
+      <c r="F44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C45" t="s">
         <v>86</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C46" t="s">
         <v>88</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C47" t="s">
         <v>90</v>
       </c>
-      <c r="C44" t="s">
+      <c r="F47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C48" t="s">
         <v>92</v>
       </c>
-      <c r="C45" t="s">
+      <c r="F48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C49" t="s">
         <v>94</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C50" t="s">
         <v>96</v>
       </c>
-      <c r="C47" t="s">
+      <c r="F50" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C51" t="s">
         <v>98</v>
       </c>
-      <c r="C48" t="s">
+      <c r="F51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C52" t="s">
         <v>100</v>
       </c>
-      <c r="C49" t="s">
+      <c r="F52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C53" t="s">
         <v>102</v>
       </c>
-      <c r="C50" t="s">
+      <c r="F53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C54" t="s">
         <v>104</v>
       </c>
-      <c r="C51" t="s">
+      <c r="F54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C55" t="s">
         <v>106</v>
       </c>
-      <c r="C52" t="s">
+      <c r="F55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C56" t="s">
         <v>108</v>
       </c>
-      <c r="C53" t="s">
+      <c r="F56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C57" t="s">
         <v>110</v>
       </c>
-      <c r="C54" t="s">
+      <c r="F57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C58" t="s">
         <v>112</v>
       </c>
-      <c r="C55" t="s">
+      <c r="F58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C59" t="s">
         <v>114</v>
       </c>
-      <c r="C56" t="s">
+      <c r="F59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C60" t="s">
         <v>116</v>
       </c>
-      <c r="C57" t="s">
+      <c r="F60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C61" t="s">
         <v>118</v>
       </c>
-      <c r="C58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>4</v>
       </c>
-      <c r="B62" t="s">
-        <v>126</v>
+      <c r="B62" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>4</v>
       </c>
-      <c r="B63" t="s">
-        <v>128</v>
+      <c r="B63" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>1</v>
       </c>
-      <c r="B64" t="s">
-        <v>130</v>
+      <c r="B64" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
-        <v>132</v>
+      <c r="B65" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>1</v>
       </c>
-      <c r="B66" t="s">
-        <v>134</v>
+      <c r="B66" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>6</v>
       </c>
-      <c r="B67" t="s">
-        <v>136</v>
+      <c r="B67" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>4</v>
       </c>
-      <c r="B68" t="s">
-        <v>138</v>
+      <c r="B68" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>5</v>
       </c>
-      <c r="B69" t="s">
-        <v>140</v>
+      <c r="B69" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>1</v>
       </c>
-      <c r="B70" t="s">
-        <v>142</v>
+      <c r="B70" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>3</v>
       </c>
-      <c r="B71" t="s">
-        <v>144</v>
+      <c r="B71" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2</v>
       </c>
-      <c r="B72" t="s">
-        <v>146</v>
+      <c r="B72" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>4</v>
       </c>
-      <c r="B73" t="s">
-        <v>175</v>
+      <c r="B73" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>4</v>
       </c>
-      <c r="B74" t="s">
-        <v>174</v>
+      <c r="B74" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2</v>
       </c>
-      <c r="B75" t="s">
-        <v>176</v>
+      <c r="B75" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2</v>
       </c>
-      <c r="B76" t="s">
-        <v>177</v>
+      <c r="B76" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>5</v>
       </c>
-      <c r="B77" t="s">
-        <v>148</v>
+      <c r="B77" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>1</v>
       </c>
-      <c r="B78" t="s">
-        <v>150</v>
+      <c r="B78" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>3</v>
       </c>
-      <c r="B79" t="s">
-        <v>152</v>
+      <c r="B79" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>3</v>
       </c>
-      <c r="B80" t="s">
-        <v>154</v>
+      <c r="B80" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>1</v>
       </c>
-      <c r="B81" t="s">
-        <v>156</v>
+      <c r="B81" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>1</v>
       </c>
-      <c r="B82" t="s">
-        <v>158</v>
+      <c r="B82" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>1</v>
       </c>
-      <c r="B83" t="s">
-        <v>160</v>
+      <c r="B83" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C83" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2</v>
       </c>
-      <c r="B84" t="s">
-        <v>162</v>
+      <c r="B84" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>1</v>
       </c>
-      <c r="B85" t="s">
-        <v>164</v>
+      <c r="B85" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C85" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>1</v>
       </c>
-      <c r="B86" t="s">
-        <v>166</v>
+      <c r="B86" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>1</v>
       </c>
-      <c r="B87" t="s">
-        <v>168</v>
+      <c r="B87" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>1</v>
       </c>
-      <c r="B88" t="s">
-        <v>170</v>
+      <c r="B88" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>1</v>
       </c>
-      <c r="B89" t="s">
-        <v>172</v>
+      <c r="B89" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
